--- a/korona.xlsx
+++ b/korona.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="60" windowWidth="19420" windowHeight="7440"/>
+    <workbookView xWindow="-28920" yWindow="60" windowWidth="19420" windowHeight="7220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,24 +39,12 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Gyógyult</t>
   </si>
@@ -161,14 +149,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -212,10 +192,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.503338601261203E-2"/>
-          <c:y val="0.1166352201257862"/>
-          <c:w val="0.87031901265852485"/>
-          <c:h val="0.72326874696218557"/>
+          <c:x val="7.5033386012612044E-2"/>
+          <c:y val="0.11663522012578621"/>
+          <c:w val="0.87031901265852507"/>
+          <c:h val="0.72326874696218568"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1474,9 +1454,8 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="164141696"/>
-        <c:axId val="101167872"/>
+        <c:axId val="117650176"/>
+        <c:axId val="117651328"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -1662,6 +1641,21 @@
                 <c:pt idx="18">
                   <c:v>10303</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>12148</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14146</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15208</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16401</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1672,12 +1666,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="101170560"/>
-        <c:axId val="101169024"/>
+        <c:axId val="117658752"/>
+        <c:axId val="117652864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164141696"/>
+        <c:axId val="117650176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,12 +1725,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101167872"/>
+        <c:crossAx val="117651328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101167872"/>
+        <c:axId val="117651328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1793,12 +1786,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164141696"/>
+        <c:crossAx val="117650176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101169024"/>
+        <c:axId val="117652864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,12 +1831,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101170560"/>
+        <c:crossAx val="117658752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101170560"/>
+        <c:axId val="117658752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,7 +1844,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="101169024"/>
+        <c:crossAx val="117652864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1931,7 +1924,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2068,23 +2061,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="102996608"/>
-        <c:axId val="102995072"/>
+        <c:axId val="117668480"/>
+        <c:axId val="117674368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102996608"/>
+        <c:axId val="117668480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102995072"/>
+        <c:crossAx val="117674368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102995072"/>
+        <c:axId val="117674368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,7 +2085,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102996608"/>
+        <c:crossAx val="117668480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2105,7 +2098,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2187,8 +2180,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="141010432"/>
-        <c:axId val="141026048"/>
+        <c:axId val="117691904"/>
+        <c:axId val="117693440"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2260,24 +2253,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99475840"/>
-        <c:axId val="143599488"/>
+        <c:axId val="117967104"/>
+        <c:axId val="117965568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141010432"/>
+        <c:axId val="117691904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141026048"/>
+        <c:crossAx val="117693440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141026048"/>
+        <c:axId val="117693440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,31 +2278,32 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141010432"/>
+        <c:crossAx val="117691904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143599488"/>
+        <c:axId val="117965568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99475840"/>
+        <c:crossAx val="117967104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="99475840"/>
+        <c:axId val="117967104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="143599488"/>
+        <c:crossAx val="117965568"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2323,7 +2317,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2408,8 +2402,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="160858880"/>
-        <c:axId val="160860800"/>
+        <c:axId val="117996928"/>
+        <c:axId val="118002816"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2484,24 +2478,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="171495808"/>
-        <c:axId val="170312064"/>
+        <c:axId val="118014336"/>
+        <c:axId val="118004352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160858880"/>
+        <c:axId val="117996928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160860800"/>
+        <c:crossAx val="118002816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160860800"/>
+        <c:axId val="118002816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,31 +2503,32 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160858880"/>
+        <c:crossAx val="117996928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="170312064"/>
+        <c:axId val="118004352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171495808"/>
+        <c:crossAx val="118014336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="171495808"/>
+        <c:axId val="118014336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="170312064"/>
+        <c:crossAx val="118004352"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2547,7 +2542,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2573,7 +2568,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42D6B9E6-1BF8-4200-A4F6-736B3AD203DA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42D6B9E6-1BF8-4200-A4F6-736B3AD203DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2973,7 +2968,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2981,13 +2976,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="I36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3156,7 +3151,7 @@
         <v>609</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" ref="L6:L9" si="4">(G6-G5)/(K6-K5)</f>
+        <f>(G6-G5)/(K6-K5)</f>
         <v>4.048582995951417E-3</v>
       </c>
       <c r="M6">
@@ -3168,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O22" si="5">G6/K6</f>
+        <f t="shared" ref="O6:O22" si="4">G6/K6</f>
         <v>2.1346469622331693E-2</v>
       </c>
     </row>
@@ -3211,19 +3206,19 @@
         <v>730</v>
       </c>
       <c r="L7" s="2">
+        <f>(G7-G6)/(K7-K6)</f>
+        <v>2.4793388429752067E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M51" si="5">K7-K6</f>
+        <v>121</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N21" si="6">G7-G6</f>
+        <v>3</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="4"/>
-        <v>2.4793388429752067E-2</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ref="M7:M22" si="6">K7-K6</f>
-        <v>121</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ref="N7:N22" si="7">G7-G6</f>
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="5"/>
         <v>2.1917808219178082E-2</v>
       </c>
     </row>
@@ -3266,19 +3261,19 @@
         <v>858</v>
       </c>
       <c r="L8" s="2">
+        <f>(G8-G7)/(K8-K7)</f>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="4"/>
-        <v>2.34375E-2</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
-        <v>128</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="5"/>
         <v>2.2144522144522144E-2</v>
       </c>
     </row>
@@ -3321,19 +3316,19 @@
         <v>1014</v>
       </c>
       <c r="L9" s="2">
+        <f>(G9-G8)/(K9-K8)</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="4"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="6"/>
-        <v>156</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="5"/>
         <v>2.465483234714004E-2</v>
       </c>
     </row>
@@ -3380,15 +3375,15 @@
         <v>3.1531531531531529E-2</v>
       </c>
       <c r="M10">
+        <f t="shared" si="5"/>
+        <v>222</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="6"/>
-        <v>222</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="O10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.5889967637540454E-2</v>
       </c>
     </row>
@@ -3431,19 +3426,19 @@
         <v>1436</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ref="L11:L22" si="8">(G11-G10)/(K11-K10)</f>
+        <f t="shared" ref="L11:L22" si="7">(G11-G10)/(K11-K10)</f>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="M11">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="6"/>
-        <v>200</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="O11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.7158774373259052E-2</v>
       </c>
     </row>
@@ -3486,19 +3481,19 @@
         <v>1587</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7.2847682119205295E-2</v>
       </c>
       <c r="M12">
+        <f t="shared" si="5"/>
+        <v>151</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="6"/>
-        <v>151</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="O12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.1505986137366097E-2</v>
       </c>
     </row>
@@ -3541,19 +3536,19 @@
         <v>1803</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="M13">
+        <f t="shared" si="5"/>
+        <v>216</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="6"/>
-        <v>216</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="O13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.2168607875762617E-2</v>
       </c>
     </row>
@@ -3596,19 +3591,19 @@
         <v>2322</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.8901734104046242E-2</v>
       </c>
       <c r="M14">
+        <f t="shared" si="5"/>
+        <v>519</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="6"/>
-        <v>519</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="O14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.1438415159345395E-2</v>
       </c>
     </row>
@@ -3651,19 +3646,19 @@
         <v>3007</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.7518248175182483E-2</v>
       </c>
       <c r="M15">
+        <f t="shared" si="5"/>
+        <v>685</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="6"/>
-        <v>685</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="O15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.8267376122381109E-2</v>
       </c>
     </row>
@@ -3672,11 +3667,11 @@
         <v>43911</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" ref="B16" si="9">(G16-D16)^2</f>
+        <f t="shared" ref="B16:B21" si="8">(G16-D16)^2</f>
         <v>16.51239371006541</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" ref="C16" si="10">(G16-F16)^2</f>
+        <f t="shared" ref="C16:C21" si="9">(G16-F16)^2</f>
         <v>6.0006039274910314</v>
       </c>
       <c r="D16" s="3">
@@ -3706,19 +3701,19 @@
         <v>3447</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4.0909090909090909E-2</v>
       </c>
       <c r="M16">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="6"/>
-        <v>440</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="O16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.9881055990716564E-2</v>
       </c>
     </row>
@@ -3727,11 +3722,11 @@
         <v>43912</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" ref="B17:B18" si="11">(G17-D17)^2</f>
+        <f t="shared" si="8"/>
         <v>2.0939728364561248</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:C20" si="12">(G17-F17)^2</f>
+        <f t="shared" si="9"/>
         <v>14.104790987989441</v>
       </c>
       <c r="D17" s="3">
@@ -3761,19 +3756,19 @@
         <v>4443</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.8112449799196786E-2</v>
       </c>
       <c r="M17">
+        <f t="shared" si="5"/>
+        <v>996</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="6"/>
-        <v>996</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="O17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.9484582489309026E-2</v>
       </c>
     </row>
@@ -3782,11 +3777,11 @@
         <v>43913</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>116.65909968486983</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>181.07078749096769</v>
       </c>
       <c r="D18" s="3">
@@ -3816,19 +3811,19 @@
         <v>5515</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.3582089552238806E-2</v>
       </c>
       <c r="M18">
+        <f t="shared" si="5"/>
+        <v>1072</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="6"/>
-        <v>1072</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="O18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.0281051677243879E-2</v>
       </c>
     </row>
@@ -3837,11 +3832,11 @@
         <v>43914</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" ref="B19:B20" si="13">(G19-D19)^2</f>
+        <f t="shared" si="8"/>
         <v>0.27230883429238406</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19" si="14">(G19-F19)^2</f>
+        <f t="shared" si="9"/>
         <v>2.9625721530637064</v>
       </c>
       <c r="D19" s="3">
@@ -3871,19 +3866,19 @@
         <v>6113</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.3444816053511704E-2</v>
       </c>
       <c r="M19">
+        <f t="shared" si="5"/>
+        <v>598</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="6"/>
-        <v>598</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="O19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.0590544740716506E-2</v>
       </c>
     </row>
@@ -3892,11 +3887,11 @@
         <v>43915</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>3.993629103221739</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>5.89053960156562</v>
       </c>
       <c r="D20" s="3">
@@ -3926,19 +3921,19 @@
         <v>6817</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5.5397727272727272E-2</v>
       </c>
       <c r="M20">
+        <f t="shared" si="5"/>
+        <v>704</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="6"/>
-        <v>704</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="O20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.3152413084934725E-2</v>
       </c>
     </row>
@@ -3947,11 +3942,11 @@
         <v>43916</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" ref="B21" si="15">(G21-D21)^2</f>
+        <f t="shared" si="8"/>
         <v>25.309999357207424</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" ref="C21" si="16">(G21-F21)^2</f>
+        <f t="shared" si="9"/>
         <v>77.122107215109821</v>
       </c>
       <c r="D21" s="3">
@@ -3981,19 +3976,19 @@
         <v>8005</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.9461279461279462E-2</v>
       </c>
       <c r="M21">
+        <f t="shared" si="5"/>
+        <v>1188</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="6"/>
-        <v>1188</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="O21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.2604622111180509E-2</v>
       </c>
     </row>
@@ -4021,16 +4016,16 @@
         <v>9275</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.0708661417322834E-2</v>
       </c>
       <c r="M22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1270</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.2345013477088951E-2</v>
       </c>
     </row>
@@ -4052,13 +4047,17 @@
         <v>392.8257786345788</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" ref="G22:G42" si="17">9.1163*EXP(0.204*E23)</f>
+        <f t="shared" ref="G23:G42" si="10">9.1163*EXP(0.204*E23)</f>
         <v>439.6874000607678</v>
       </c>
       <c r="K23">
         <v>10303</v>
       </c>
       <c r="L23" s="2"/>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>1028</v>
+      </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
@@ -4078,10 +4077,17 @@
         <v>474.01659901050158</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>539.18784679248176</v>
       </c>
+      <c r="K24">
+        <v>12148</v>
+      </c>
       <c r="L24" s="2"/>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>1845</v>
+      </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
@@ -4101,10 +4107,17 @@
         <v>571.98826644851965</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>661.20506088765046</v>
       </c>
+      <c r="K25">
+        <v>13301</v>
+      </c>
       <c r="L25" s="2"/>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>1153</v>
+      </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1">
@@ -4124,10 +4137,17 @@
         <v>690.20911427520366</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>810.83454522242687</v>
       </c>
+      <c r="K26">
+        <v>14146</v>
+      </c>
       <c r="L26" s="2"/>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>845</v>
+      </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1">
@@ -4147,10 +4167,17 @@
         <v>832.86432497376632</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>994.32490556476807</v>
       </c>
+      <c r="K27">
+        <v>15208</v>
+      </c>
       <c r="L27" s="2"/>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>1062</v>
+      </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1">
@@ -4170,10 +4197,17 @@
         <v>1005.0040914664402</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>1219.3387956295967</v>
       </c>
+      <c r="K28">
+        <v>16401</v>
+      </c>
       <c r="L28" s="2"/>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>1193</v>
+      </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1">
@@ -4193,10 +4227,17 @@
         <v>1212.7224009698089</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>1495.2729135180939</v>
       </c>
+      <c r="K29">
+        <v>17769</v>
+      </c>
       <c r="L29" s="2"/>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>1368</v>
+      </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1">
@@ -4216,10 +4257,20 @@
         <v>1463.3727706202958</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>1833.6504127603259</v>
       </c>
+      <c r="K30">
+        <v>19424</v>
+      </c>
       <c r="L30" s="2"/>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>1655</v>
+      </c>
+      <c r="O30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1">
@@ -4239,10 +4290,17 @@
         <v>1765.8285722110884</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>2248.6021152522076</v>
       </c>
+      <c r="K31">
+        <v>21250</v>
+      </c>
       <c r="L31" s="2"/>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>1826</v>
+      </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1">
@@ -4262,12 +4320,19 @@
         <v>2130.7971618983502</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>2757.4566217915108</v>
       </c>
+      <c r="K32">
+        <v>22282</v>
+      </c>
       <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>43928</v>
       </c>
@@ -4285,12 +4350,19 @@
         <v>2571.1989355053393</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>3381.4639635385297</v>
       </c>
+      <c r="K33">
+        <v>23746</v>
+      </c>
       <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>43929</v>
       </c>
@@ -4308,12 +4380,19 @@
         <v>3102.624728509551</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>4146.6830144660162</v>
       </c>
+      <c r="K34">
+        <v>25748</v>
+      </c>
       <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>43930</v>
       </c>
@@ -4331,12 +4410,19 @@
         <v>3743.8877533087611</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>5085.0697236079122</v>
       </c>
+      <c r="K35">
+        <v>27826</v>
+      </c>
       <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>43931</v>
       </c>
@@ -4354,12 +4440,19 @@
         <v>4517.6896131130588</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>6235.8116122564643</v>
       </c>
+      <c r="K36">
+        <v>29948</v>
+      </c>
       <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>43932</v>
       </c>
@@ -4377,12 +4470,19 @@
         <v>5451.4239702812029</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>7646.9642654108957</v>
       </c>
+      <c r="K37">
+        <v>31961</v>
+      </c>
       <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>43933</v>
       </c>
@@ -4400,12 +4500,19 @@
         <v>6578.1463200784883</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>9377.4581582190167</v>
       </c>
+      <c r="K38">
+        <v>33532</v>
+      </c>
       <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>43934</v>
       </c>
@@ -4423,12 +4530,19 @@
         <v>7937.7442011963058</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>11499.559623536854</v>
       </c>
+      <c r="K39">
+        <v>34819</v>
+      </c>
       <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>43935</v>
       </c>
@@ -4446,12 +4560,19 @@
         <v>9578.3492701138002</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>14101.888731902836</v>
       </c>
+      <c r="K40">
+        <v>35825</v>
+      </c>
       <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>43936</v>
       </c>
@@ -4469,12 +4590,19 @@
         <v>11558.041228698528</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>17293.120112177388</v>
       </c>
+      <c r="K41">
+        <v>37326</v>
+      </c>
       <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="5">
         <v>43937</v>
       </c>
@@ -4492,10 +4620,460 @@
         <v>13946.90392645369</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>21206.521261059599</v>
       </c>
+      <c r="K42">
+        <v>38489</v>
+      </c>
       <c r="L42" s="2"/>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="5">
+        <v>43938</v>
+      </c>
+      <c r="K43">
+        <v>41519</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="5">
+        <v>43939</v>
+      </c>
+      <c r="K44">
+        <v>43901</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="5">
+        <v>43940</v>
+      </c>
+      <c r="K45">
+        <v>46353</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="5">
+        <v>43941</v>
+      </c>
+      <c r="K46">
+        <v>48057</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="5"/>
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="5">
+        <v>43942</v>
+      </c>
+      <c r="K47">
+        <v>50052</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="5"/>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="5">
+        <v>43943</v>
+      </c>
+      <c r="K48">
+        <v>52702</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="5">
+        <v>43944</v>
+      </c>
+      <c r="K49">
+        <v>55390</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="5">
+        <v>43945</v>
+      </c>
+      <c r="K50">
+        <v>58251</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="5">
+        <v>43946</v>
+      </c>
+      <c r="K51">
+        <v>60801</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="5"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="5">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="5">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="5">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="5">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="5">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="5">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="5">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="5">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="5">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="5">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="5">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="5">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="5">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="5">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="5">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="5">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="5">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="5">
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="5">
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="5">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="5">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="5">
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="5">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="5">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="5">
+        <v>43971</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="5">
+        <v>43972</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="5">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="5">
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="5">
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="5">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="5">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="5">
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="5">
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="5">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="5">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="5">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="5">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="5">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="5">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="5">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="5">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="5">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="5">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="5">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="5">
+        <v>43991</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="5">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="5">
+        <v>43993</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="5">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="5">
+        <v>43995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="5">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="5">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="5">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="5">
+        <v>43999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="5">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="5">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="5">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="5">
+        <v>44003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="5">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="5">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="5">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="5">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="5">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="5">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="5">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="5">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="5">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="5">
+        <v>44013</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
